--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10662" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10676" uniqueCount="2102">
   <si>
     <t>Statue Base for an Unknown Kanephoros</t>
   </si>
@@ -5740,12 +5740,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>IG IV²</t>
-  </si>
-  <si>
-    <t>IG II²</t>
-  </si>
-  <si>
     <t>4046</t>
   </si>
   <si>
@@ -6353,13 +6347,29 @@
   </si>
   <si>
     <t>4878</t>
+  </si>
+  <si>
+    <r>
+      <t>IG II</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6497,6 +6507,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7113,14 +7131,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:E266" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E266"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:E272" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E272"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Inscription ID"/>
-    <tableColumn id="2" name="Publication" dataDxfId="4"/>
-    <tableColumn id="3" name="Number" dataDxfId="3"/>
-    <tableColumn id="4" name="Additional" dataDxfId="2"/>
-    <tableColumn id="5" name="Notes" dataDxfId="1"/>
+    <tableColumn id="2" name="Publication" dataDxfId="3"/>
+    <tableColumn id="3" name="Number" dataDxfId="2"/>
+    <tableColumn id="4" name="Additional" dataDxfId="1"/>
+    <tableColumn id="5" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -47279,10 +47297,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47311,331 +47329,331 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C2" s="3">
         <v>3220</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>268</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C3" s="3">
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C4" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C5" s="3">
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>273</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C6" s="3">
         <v>3491</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>274</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C7" s="3">
         <v>3219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>275</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C8" s="3">
         <v>3490</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C9" s="3">
         <v>4108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>277</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C10" s="3">
         <v>3507</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>278</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C11" s="3">
         <v>3508</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>279</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C12" s="3">
         <v>4704</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>280</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C13" s="3">
         <v>4037</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>281</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C14" s="3">
         <v>4716</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>282</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C15" s="3">
         <v>3498</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>283</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C16" s="3">
         <v>3727</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>286</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C17" s="3">
         <v>3913</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>287</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C18" s="3">
         <v>4705</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>288</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C19" s="3">
         <v>3514</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>289</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C20" s="3">
         <v>4112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>675</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C21" s="3">
         <v>3513</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>676</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C22" s="3">
         <v>3513</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>677</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C23" s="3">
         <v>3513</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>678</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C24" s="3">
         <v>3513</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>292</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C25" s="3">
         <v>4231</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>293</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C26" s="3">
         <v>4708</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>294</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C27" s="3">
         <v>4202</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>295</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C28" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>295</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>298</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C30" s="3">
         <v>3509</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>299</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C31" s="3">
         <v>3519</v>
@@ -47644,67 +47662,67 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>679</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C32" s="3">
         <v>3510</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>680</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C33" s="3">
         <v>3510</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>681</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C34" s="3">
         <v>3510</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>302</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C35" s="3">
         <v>3511</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>304</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C36" s="3">
         <v>4306</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>305</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C37" s="3">
         <v>3887</v>
@@ -47713,2610 +47731,2682 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>305</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>306</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>307</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>308</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>317</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>324</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>325</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>326</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>327</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>328</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>329</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>330</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>331</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>333</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>334</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>336</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>337</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>338</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>341</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>342</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>343</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>344</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>345</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1898</v>
+        <v>2101</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>345</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1898</v>
+        <v>2101</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>345</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1898</v>
+        <v>2101</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>346</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>682</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="C63" s="3" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>682</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>347</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>683</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>347</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    </row>
+    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>683</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>348</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>349</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>350</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>349</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>351</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>350</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>352</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>351</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>353</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>352</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>355</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>353</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>358</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>355</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C72" s="3" t="s">
+    <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>360</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>358</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>361</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>360</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>362</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="D74" s="3" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>363</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>364</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>365</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>366</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>367</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>369</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>370</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>361</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>362</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>371</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>372</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>373</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>374</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>375</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>377</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>378</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>379</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>380</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>381</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>382</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>383</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>384</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>385</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>386</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>387</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>388</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>390</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>392</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>393</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>394</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>395</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>396</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>397</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>397</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>398</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>399</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>401</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>402</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>403</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>404</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>405</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>406</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>688</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>689</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>434</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>435</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>436</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>437</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>438</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>363</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>364</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>365</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>366</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>367</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>369</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>370</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>439</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>440</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>441</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>443</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>444</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>446</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>447</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>448</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>449</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>450</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>371</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>372</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>373</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>374</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>375</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>377</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>378</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>379</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>380</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>381</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>382</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D94" s="3" t="s">
+    <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>453</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>454</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>457</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>458</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>460</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>701</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>383</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>384</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>385</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>386</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>387</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>388</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>390</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>392</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>393</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>394</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>395</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>396</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>397</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>397</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>398</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>399</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>401</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>402</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>403</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>404</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D114" s="3" t="s">
+    <row r="142" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>702</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>405</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>406</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>688</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>689</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>434</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>435</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>436</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>437</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>438</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>439</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>440</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>441</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>443</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>444</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>446</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>447</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>448</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>449</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>450</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>453</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>454</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>457</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>458</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>460</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C138" s="3" t="s">
+    <row r="143" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>462</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>461</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C139" s="3" t="s">
+    <row r="144" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>463</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>462</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C140" s="3" t="s">
+    </row>
+    <row r="145" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>464</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>463</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C141" s="3" t="s">
+    <row r="146" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>465</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>464</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C142" s="3" t="s">
+    <row r="147" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>466</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>465</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C143" s="3" t="s">
+    <row r="148" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>467</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>466</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C144" s="3" t="s">
+    <row r="149" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>468</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>467</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C145" s="3" t="s">
+    <row r="150" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>470</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>468</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C146" s="3" t="s">
+    <row r="151" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>471</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>1987</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>470</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C147" s="3" t="s">
+    <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>691</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>1988</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>471</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>691</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>692</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>693</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>694</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>1990</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1899</v>
+        <v>2101</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>692</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>693</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>694</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>474</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="B160" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>476</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>477</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>476</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C158" s="3" t="s">
+    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>478</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>477</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C159" s="3" t="s">
+    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>479</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>478</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C160" s="3" t="s">
+    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>481</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>479</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C161" s="3" t="s">
+    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>482</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>481</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C162" s="3" t="s">
+    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>483</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>482</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C163" s="3" t="s">
+    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>485</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>483</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C164" s="3" t="s">
+    <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>695</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>485</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C165" s="3" t="s">
+    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>696</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>487</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>486</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C166" s="3" t="s">
+    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>488</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>487</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C167" s="3" t="s">
+    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>697</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>488</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C168" s="3" t="s">
+    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>698</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>490</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>489</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C169" s="3" t="s">
+    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>491</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>490</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="D176" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>492</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>491</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C171" s="3" t="s">
+    <row r="178" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>493</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>2006</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>492</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C172" s="3" t="s">
+    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>493</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>493</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="D179" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>495</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="D173" s="3" t="s">
+    </row>
+    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>496</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>498</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>500</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>501</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>502</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>503</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>504</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>505</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>506</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>507</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>509</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>510</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>511</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>512</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>513</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>493</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D174" s="3" t="s">
+    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>514</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>515</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>516</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>518</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>519</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>520</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>521</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>495</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>496</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>498</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>500</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>501</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>502</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>503</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>504</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>505</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>506</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>507</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>509</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>510</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>511</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>512</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>513</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D190" s="3" t="s">
+    <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>521</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>514</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>515</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>516</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>518</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>519</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>520</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>521</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C197" s="3" t="s">
+    <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>522</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="D197" s="3" t="s">
+    </row>
+    <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>523</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>524</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>525</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>526</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>527</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>527</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>528</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>529</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>530</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>531</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>532</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>533</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>534</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>535</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>537</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>545</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>586</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>587</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>588</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>589</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>590</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>593</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>521</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>522</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>523</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>524</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>525</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>526</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>527</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>527</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>528</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>529</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>530</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>531</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>532</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>533</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>534</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>535</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>537</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>545</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>586</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>587</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>588</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>589</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>590</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C220" s="3" t="s">
+    <row r="227" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>597</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>593</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C221" s="3" t="s">
+    <row r="228" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>600</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>597</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C222" s="3" t="s">
+    </row>
+    <row r="229" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>619</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>2058</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>600</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>619</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>621</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>622</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>623</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>624</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>625</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>2065</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>621</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>622</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>623</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>624</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>625</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>626</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C230" s="3" t="s">
+      <c r="B235" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>628</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>629</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>630</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>631</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>632</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>633</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>633</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>634</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>635</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>636</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>699</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>700</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>638</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>639</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>640</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>2066</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>628</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>629</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>630</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>631</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>632</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>633</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>633</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>634</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>635</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>636</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>637</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>638</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C242" s="3" t="s">
+    <row r="251" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>641</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>2079</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>639</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C243" s="3" t="s">
+    <row r="252" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>642</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>640</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>641</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C245" s="3" t="s">
+    <row r="253" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>644</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>642</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C246" s="3" t="s">
+    <row r="254" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>645</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>2082</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>644</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C247" s="3" t="s">
+    <row r="255" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>646</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>645</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C248" s="3" t="s">
+    <row r="256" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>647</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>2084</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>646</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C249" s="3" t="s">
+    <row r="257" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>648</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>2085</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>647</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C250" s="3" t="s">
+    <row r="258" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>649</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>648</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C251" s="3" t="s">
+    <row r="259" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>650</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>2087</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>649</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C252" s="3" t="s">
+    <row r="260" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>651</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>650</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C253" s="3" t="s">
+    <row r="261" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>653</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>2089</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>651</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C254" s="3" t="s">
+    <row r="262" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>654</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>653</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C255" s="3" t="s">
+    <row r="263" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>656</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>654</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C256" s="3" t="s">
+    <row r="264" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>658</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>656</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C257" s="3" t="s">
+    <row r="265" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>659</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>658</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C258" s="3" t="s">
+    <row r="266" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>660</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>2094</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>659</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C259" s="3" t="s">
+    <row r="267" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>661</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>660</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C260" s="3" t="s">
+    <row r="268" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>665</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>2096</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>661</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C261" s="3" t="s">
+    <row r="269" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>666</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>2097</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>665</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C262" s="3" t="s">
+    <row r="270" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>667</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>2098</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>666</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C263" s="3" t="s">
+    <row r="271" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>668</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>667</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C264" s="3" t="s">
+    <row r="272" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>669</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>2100</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>668</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>669</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>2102</v>
       </c>
     </row>
   </sheetData>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13120"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13120" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="Institution" sheetId="2" r:id="rId3"/>
     <sheet name="Person" sheetId="3" r:id="rId4"/>
     <sheet name="Honor" sheetId="4" r:id="rId5"/>
-    <sheet name="Institution Sponsor" sheetId="5" r:id="rId6"/>
+    <sheet name="Institution Sponsorship" sheetId="5" r:id="rId6"/>
     <sheet name="Institution Honor" sheetId="6" r:id="rId7"/>
     <sheet name="Honor in Inscription" sheetId="7" r:id="rId8"/>
     <sheet name="Person in Inscription" sheetId="13" r:id="rId9"/>
-    <sheet name="Person Displaying Honor" sheetId="8" r:id="rId10"/>
+    <sheet name="Person Honor Display" sheetId="8" r:id="rId10"/>
     <sheet name="Personal Relationship" sheetId="18" r:id="rId11"/>
     <sheet name="Inscription Macroscopic" sheetId="16" r:id="rId12"/>
     <sheet name="Multistone Inscription" sheetId="17" r:id="rId13"/>
@@ -8351,7 +8351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -23581,8 +23581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E518"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E398" sqref="E398"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13467" uniqueCount="2434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13495" uniqueCount="2434">
   <si>
     <t>Statue Base for an Unknown Kanephoros</t>
   </si>
@@ -8141,14 +8141,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:E489" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:E489"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:E503" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:E503"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Inscription ID"/>
-    <tableColumn id="2" name="Publication" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Number" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Additional" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Notes" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Publication" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Number" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Additional" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Notes" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -50339,7 +50339,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50684,10 +50684,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53820,7 +53820,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>296</v>
+        <v>703</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>2372</v>
@@ -53831,601 +53831,601 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>297</v>
+        <v>704</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>330</v>
+        <v>679</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>299</v>
+        <v>680</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>325</v>
+        <v>681</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>286</v>
+        <v>688</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>348</v>
+        <v>689</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>683</v>
+        <v>377</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>281</v>
+        <v>682</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>342</v>
+        <v>683</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>369</v>
+        <v>683</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>2417</v>
+        <v>2372</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>2419</v>
+        <v>2372</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>2419</v>
+        <v>2372</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>2422</v>
+        <v>2372</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>2423</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>2419</v>
+        <v>2372</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>2419</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>287</v>
+        <v>684</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>2419</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>287</v>
+        <v>684</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>291</v>
+        <v>685</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>297</v>
+        <v>685</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>297</v>
+        <v>686</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>300</v>
+        <v>686</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>2384</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>303</v>
+        <v>687</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>2419</v>
@@ -54436,18 +54436,18 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>309</v>
+        <v>687</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>2419</v>
@@ -54458,7 +54458,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>2419</v>
@@ -54469,84 +54469,84 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>2419</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>2419</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>2420</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>316</v>
+        <v>676</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>318</v>
+        <v>677</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>319</v>
+        <v>678</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>2419</v>
@@ -54557,29 +54557,29 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>2420</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>2420</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>2419</v>
@@ -54590,7 +54590,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>2419</v>
@@ -54601,7 +54601,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>2419</v>
@@ -54612,18 +54612,18 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>2396</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>2419</v>
@@ -54634,7 +54634,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>2419</v>
@@ -54645,18 +54645,18 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>2408</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>2419</v>
@@ -54667,18 +54667,18 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>2429</v>
+        <v>2419</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>2430</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>2419</v>
@@ -54689,40 +54689,40 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>2429</v>
+        <v>2419</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>2431</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>2429</v>
+        <v>2419</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>2430</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>2405</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>2419</v>
@@ -54733,18 +54733,18 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>2407</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>2419</v>
@@ -54755,7 +54755,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>2419</v>
@@ -54766,29 +54766,29 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>2420</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>2403</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>2419</v>
@@ -54799,29 +54799,29 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>407</v>
+        <v>682</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>2420</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>408</v>
+        <v>683</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>2420</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>2419</v>
@@ -54832,18 +54832,18 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>2420</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>2419</v>
@@ -54854,40 +54854,40 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>2420</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>2420</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>2420</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>2419</v>
@@ -54898,18 +54898,18 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>2420</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>2419</v>
@@ -54920,7 +54920,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>2419</v>
@@ -54931,7 +54931,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>2419</v>
@@ -54942,18 +54942,18 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>2420</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>2419</v>
@@ -54964,7 +54964,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>2419</v>
@@ -54975,7 +54975,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>2419</v>
@@ -54986,7 +54986,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>2419</v>
@@ -54997,7 +54997,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>2419</v>
@@ -55008,7 +55008,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>2419</v>
@@ -55019,7 +55019,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>2419</v>
@@ -55030,7 +55030,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>2419</v>
@@ -55041,7 +55041,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>2419</v>
@@ -55052,7 +55052,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>2419</v>
@@ -55063,7 +55063,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>2419</v>
@@ -55074,7 +55074,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>2419</v>
@@ -55085,7 +55085,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>2419</v>
@@ -55096,7 +55096,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>2419</v>
@@ -55107,7 +55107,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>2419</v>
@@ -55118,7 +55118,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>2419</v>
@@ -55129,7 +55129,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>2419</v>
@@ -55140,18 +55140,18 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>2432</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>2419</v>
@@ -55162,7 +55162,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>2419</v>
@@ -55173,7 +55173,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>2419</v>
@@ -55184,7 +55184,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>2419</v>
@@ -55195,7 +55195,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>2419</v>
@@ -55206,7 +55206,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>2419</v>
@@ -55217,7 +55217,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>2419</v>
@@ -55228,7 +55228,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>2419</v>
@@ -55239,7 +55239,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>538</v>
+        <v>432</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>2419</v>
@@ -55250,7 +55250,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>2419</v>
@@ -55261,7 +55261,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>2419</v>
@@ -55272,7 +55272,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>2419</v>
@@ -55283,7 +55283,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>2419</v>
@@ -55294,7 +55294,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>2419</v>
@@ -55305,18 +55305,18 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>2420</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>2419</v>
@@ -55327,7 +55327,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>2419</v>
@@ -55338,7 +55338,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>2419</v>
@@ -55349,7 +55349,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>2419</v>
@@ -55360,7 +55360,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>2419</v>
@@ -55371,7 +55371,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>2419</v>
@@ -55382,7 +55382,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>2419</v>
@@ -55393,7 +55393,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>2419</v>
@@ -55404,7 +55404,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>2419</v>
@@ -55415,7 +55415,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>2419</v>
@@ -55426,7 +55426,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>2419</v>
@@ -55437,7 +55437,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>2419</v>
@@ -55448,7 +55448,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>2419</v>
@@ -55459,7 +55459,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>2419</v>
@@ -55470,7 +55470,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>2419</v>
@@ -55481,7 +55481,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>2419</v>
@@ -55492,7 +55492,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>2419</v>
@@ -55503,7 +55503,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>2419</v>
@@ -55514,7 +55514,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>2419</v>
@@ -55525,7 +55525,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>2419</v>
@@ -55536,7 +55536,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>2419</v>
@@ -55547,7 +55547,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>2419</v>
@@ -55558,7 +55558,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>2419</v>
@@ -55569,7 +55569,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>2419</v>
@@ -55580,7 +55580,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>2419</v>
@@ -55591,7 +55591,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>2419</v>
@@ -55602,18 +55602,18 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>2433</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>2419</v>
@@ -55624,7 +55624,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>2419</v>
@@ -55635,7 +55635,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>2419</v>
@@ -55646,7 +55646,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>2419</v>
@@ -55657,7 +55657,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>2419</v>
@@ -55668,7 +55668,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>2419</v>
@@ -55679,7 +55679,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>2419</v>
@@ -55690,7 +55690,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>2419</v>
@@ -55701,7 +55701,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>2419</v>
@@ -55712,7 +55712,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>2419</v>
@@ -55723,7 +55723,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>2419</v>
@@ -55734,7 +55734,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>2419</v>
@@ -55745,7 +55745,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>2419</v>
@@ -55756,7 +55756,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>2419</v>
@@ -55767,18 +55767,18 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>2420</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>2419</v>
@@ -55789,7 +55789,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>2419</v>
@@ -55800,7 +55800,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>2419</v>
@@ -55811,7 +55811,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>2419</v>
@@ -55822,7 +55822,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>2419</v>
@@ -55833,7 +55833,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>2419</v>
@@ -55844,7 +55844,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>2419</v>
@@ -55855,7 +55855,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>2419</v>
@@ -55866,7 +55866,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>2419</v>
@@ -55877,7 +55877,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>2419</v>
@@ -55888,7 +55888,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>2419</v>
@@ -55899,7 +55899,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>2419</v>
@@ -55910,7 +55910,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>2419</v>
@@ -55921,7 +55921,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>2419</v>
@@ -55932,7 +55932,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>2419</v>
@@ -55943,7 +55943,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>2419</v>
@@ -55954,7 +55954,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>2419</v>
@@ -55965,7 +55965,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>2419</v>
@@ -55976,7 +55976,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>2419</v>
@@ -55987,7 +55987,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>2419</v>
@@ -55998,7 +55998,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>2419</v>
@@ -56009,7 +56009,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>2419</v>
@@ -56020,7 +56020,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>2419</v>
@@ -56031,7 +56031,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>2419</v>
@@ -56042,7 +56042,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>2419</v>
@@ -56053,7 +56053,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>2419</v>
@@ -56064,7 +56064,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>2419</v>
@@ -56075,7 +56075,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>2419</v>
@@ -56086,7 +56086,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>662</v>
+        <v>608</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>2419</v>
@@ -56097,7 +56097,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>663</v>
+        <v>609</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>2419</v>
@@ -56108,7 +56108,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>2419</v>
@@ -56119,7 +56119,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>2419</v>
@@ -56130,7 +56130,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>2419</v>
@@ -56141,7 +56141,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>2419</v>
@@ -56152,7 +56152,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>2419</v>
@@ -56163,7 +56163,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>2419</v>
@@ -56174,12 +56174,166 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>679</v>
+        <v>616</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>2419</v>
       </c>
       <c r="C489" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>617</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>618</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>620</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>627</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>643</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>657</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>662</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>663</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>664</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>670</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>671</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>672</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>673</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>674</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>2420</v>
       </c>
     </row>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="13125" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="13125" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -32,19 +32,17 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13495" uniqueCount="2434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13495" uniqueCount="2435">
   <si>
     <t>Statue Base for an Unknown Kanephoros</t>
   </si>
@@ -7359,6 +7357,9 @@
   </si>
   <si>
     <t>190</t>
+  </si>
+  <si>
+    <t>Institution</t>
   </si>
 </sst>
 </file>
@@ -8176,7 +8177,7 @@
   <autoFilter ref="A1:F26"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
+    <tableColumn id="2" name="Institution"/>
     <tableColumn id="3" name="Origin"/>
     <tableColumn id="4" name="Type"/>
     <tableColumn id="5" name="Category"/>
@@ -32639,12 +32640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K680"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -50686,8 +50688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="F510" sqref="F510"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K502" sqref="K502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64179,8 +64181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64193,7 +64195,7 @@
         <v>1238</v>
       </c>
       <c r="B1" t="s">
-        <v>1244</v>
+        <v>2434</v>
       </c>
       <c r="C1" t="s">
         <v>1234</v>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="13125" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="13125" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13495" uniqueCount="2435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13495" uniqueCount="2436">
   <si>
     <t>Statue Base for an Unknown Kanephoros</t>
   </si>
@@ -7360,6 +7359,9 @@
   </si>
   <si>
     <t>Institution</t>
+  </si>
+  <si>
+    <t>Inscription</t>
   </si>
 </sst>
 </file>
@@ -8114,7 +8116,7 @@
   <autoFilter ref="A1:K680"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Title"/>
+    <tableColumn id="2" name="Inscription"/>
     <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="Date Strength"/>
     <tableColumn id="5" name="Inscription Type"/>
@@ -23780,7 +23782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E518"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
@@ -32640,8 +32642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K680"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32662,7 +32664,7 @@
         <v>1238</v>
       </c>
       <c r="B1" t="s">
-        <v>1246</v>
+        <v>2435</v>
       </c>
       <c r="C1" t="s">
         <v>1251</v>
@@ -64181,7 +64183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -64647,7 +64649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q431" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidthomas/Git/brown-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27804979-AA39-DC48-91A0-0BE931333AEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297A108-3751-BF4C-BD30-DF1C4BC483CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16534" uniqueCount="2870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16531" uniqueCount="2870">
   <si>
     <t>Statue Base for an Unknown Kanephoros</t>
   </si>
@@ -9268,8 +9268,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="HonorInInscription" displayName="HonorInInscription" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="HonorInInscription" displayName="HonorInInscription" ref="A1:D1048573" totalsRowShown="0">
+  <autoFilter ref="A1:D1048573" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Honor ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Inscription ID"/>
@@ -9701,7 +9701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+    <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
@@ -32863,10 +32863,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D491"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32899,12 +32899,12 @@
         <v>267</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2236</v>
+        <v>2187</v>
       </c>
       <c r="B3">
         <v>267</v>
@@ -32915,10 +32915,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2236</v>
+        <v>2187</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -32926,10 +32926,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -32937,10 +32937,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -32948,32 +32948,32 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B7">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2237</v>
+        <v>2189</v>
       </c>
       <c r="B8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2237</v>
+        <v>2190</v>
       </c>
       <c r="B9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -32981,29 +32981,29 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2188</v>
+        <v>2238</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2189</v>
+        <v>2239</v>
       </c>
       <c r="B11">
         <v>271</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="B12">
         <v>271</v>
@@ -33014,10 +33014,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B13">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -33025,10 +33025,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2239</v>
+        <v>2191</v>
       </c>
       <c r="B14">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -33036,10 +33036,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2240</v>
+        <v>2187</v>
       </c>
       <c r="B15">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -33047,10 +33047,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2237</v>
+        <v>2192</v>
       </c>
       <c r="B16">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -33058,10 +33058,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="B17">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -33069,10 +33069,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B18">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -33080,10 +33080,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="B19">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -33091,10 +33091,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B20">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -33102,10 +33102,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B21">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -33113,10 +33113,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B22">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -33124,10 +33124,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2187</v>
+        <v>2236</v>
       </c>
       <c r="B23">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -33135,10 +33135,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B24">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -33146,10 +33146,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B25">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -33157,10 +33157,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2236</v>
+        <v>2187</v>
       </c>
       <c r="B26">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -33168,10 +33168,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2237</v>
+        <v>2193</v>
       </c>
       <c r="B27">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -33179,10 +33179,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2236</v>
+        <v>2194</v>
       </c>
       <c r="B28">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -33190,10 +33190,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2187</v>
+        <v>2243</v>
       </c>
       <c r="B29">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -33201,10 +33201,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2193</v>
+        <v>2243</v>
       </c>
       <c r="B30">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -33212,10 +33212,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2194</v>
+        <v>2244</v>
       </c>
       <c r="B31">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -33223,10 +33223,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="B32">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -33234,10 +33234,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2243</v>
+        <v>2196</v>
       </c>
       <c r="B33">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -33245,10 +33245,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="B34">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -33256,10 +33256,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2245</v>
+        <v>2197</v>
       </c>
       <c r="B35">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -33267,10 +33267,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="B36">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
       <c r="B37">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -33289,10 +33289,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="B38">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -33303,7 +33303,7 @@
         <v>2193</v>
       </c>
       <c r="B39">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -33311,10 +33311,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2237</v>
+        <v>2198</v>
       </c>
       <c r="B40">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -33322,7 +33322,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2188</v>
+        <v>2199</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -33333,7 +33333,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="B42">
         <v>300</v>
@@ -33344,7 +33344,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B43">
         <v>300</v>
@@ -33355,7 +33355,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="B44">
         <v>300</v>
@@ -33366,7 +33366,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B45">
         <v>300</v>
@@ -33377,7 +33377,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B46">
         <v>300</v>
@@ -33388,7 +33388,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B47">
         <v>300</v>
@@ -33399,7 +33399,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -33410,7 +33410,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="B49">
         <v>300</v>
@@ -33421,7 +33421,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B50">
         <v>300</v>
@@ -33432,7 +33432,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B51">
         <v>300</v>
@@ -33443,7 +33443,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="B52">
         <v>300</v>
@@ -33454,7 +33454,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B53">
         <v>300</v>
@@ -33465,7 +33465,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B54">
         <v>300</v>
@@ -33476,7 +33476,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="B55">
         <v>300</v>
@@ -33487,10 +33487,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2211</v>
+        <v>2237</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -33498,21 +33498,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2212</v>
+        <v>2193</v>
       </c>
       <c r="B57">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2218</v>
+        <v>2237</v>
       </c>
       <c r="B58">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -33523,7 +33523,7 @@
         <v>2237</v>
       </c>
       <c r="B59">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -33531,13 +33531,13 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2193</v>
+        <v>2237</v>
       </c>
       <c r="B60">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -33545,7 +33545,7 @@
         <v>2237</v>
       </c>
       <c r="B61">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -33556,7 +33556,7 @@
         <v>2237</v>
       </c>
       <c r="B62">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -33564,10 +33564,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2237</v>
+        <v>2192</v>
       </c>
       <c r="B63">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -33575,10 +33575,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2237</v>
+        <v>2194</v>
       </c>
       <c r="B64">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -33589,7 +33589,7 @@
         <v>2237</v>
       </c>
       <c r="B65">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -33597,10 +33597,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2192</v>
+        <v>2248</v>
       </c>
       <c r="B66">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -33608,10 +33608,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2194</v>
+        <v>2249</v>
       </c>
       <c r="B67">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -33619,10 +33619,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2237</v>
+        <v>2202</v>
       </c>
       <c r="B68">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -33630,10 +33630,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2248</v>
+        <v>2187</v>
       </c>
       <c r="B69">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -33641,10 +33641,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2249</v>
+        <v>2196</v>
       </c>
       <c r="B70">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -33652,10 +33652,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="B71">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -33663,10 +33663,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="B72">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -33674,10 +33674,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="B73">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -33685,10 +33685,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2187</v>
+        <v>2192</v>
       </c>
       <c r="B74">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -33696,10 +33696,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2196</v>
+        <v>2187</v>
       </c>
       <c r="B75">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -33707,10 +33707,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2192</v>
+        <v>2213</v>
       </c>
       <c r="B76">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -33718,10 +33718,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2192</v>
+        <v>2214</v>
       </c>
       <c r="B77">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -33732,7 +33732,7 @@
         <v>2187</v>
       </c>
       <c r="B78">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -33740,10 +33740,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2213</v>
+        <v>2187</v>
       </c>
       <c r="B79">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -33751,10 +33751,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2214</v>
+        <v>2188</v>
       </c>
       <c r="B80">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -33765,7 +33765,7 @@
         <v>2187</v>
       </c>
       <c r="B81">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -33773,10 +33773,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="B82">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -33784,10 +33784,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="B83">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -33795,10 +33795,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B84">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -33806,10 +33806,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="B85">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -33817,10 +33817,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B86">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -33828,10 +33828,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2193</v>
+        <v>2237</v>
       </c>
       <c r="B87">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -33839,10 +33839,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B88">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -33850,10 +33850,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>2252</v>
+        <v>2196</v>
       </c>
       <c r="B89">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -33861,10 +33861,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>2237</v>
+        <v>2195</v>
       </c>
       <c r="B90">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -33872,10 +33872,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2196</v>
+        <v>2253</v>
       </c>
       <c r="B91">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -33883,10 +33883,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>2196</v>
+        <v>2254</v>
       </c>
       <c r="B92">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -33894,10 +33894,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2195</v>
+        <v>2237</v>
       </c>
       <c r="B93">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -33905,10 +33905,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2253</v>
+        <v>2187</v>
       </c>
       <c r="B94">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -33916,21 +33916,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2254</v>
+        <v>2195</v>
       </c>
       <c r="B95">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2237</v>
+        <v>2197</v>
       </c>
       <c r="B96">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -33938,7 +33938,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2187</v>
+        <v>2253</v>
       </c>
       <c r="B97">
         <v>358</v>
@@ -33949,21 +33949,21 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="B98">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B99">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -33971,10 +33971,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="B100">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -33982,10 +33982,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="B101">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -33993,10 +33993,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2196</v>
+        <v>2187</v>
       </c>
       <c r="B102">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -34004,10 +34004,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>2246</v>
+        <v>2237</v>
       </c>
       <c r="B103">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -34015,10 +34015,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2196</v>
+        <v>2237</v>
       </c>
       <c r="B104">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         <v>2187</v>
       </c>
       <c r="B105">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -34040,7 +34040,7 @@
         <v>2237</v>
       </c>
       <c r="B106">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -34048,10 +34048,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B107">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -34059,10 +34059,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="B108">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -34070,10 +34070,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B109">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -34084,7 +34084,7 @@
         <v>2187</v>
       </c>
       <c r="B110">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -34092,10 +34092,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>2194</v>
+        <v>2237</v>
       </c>
       <c r="B111">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -34106,7 +34106,7 @@
         <v>2187</v>
       </c>
       <c r="B112">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -34114,10 +34114,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B113">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -34125,10 +34125,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B114">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -34139,7 +34139,7 @@
         <v>2187</v>
       </c>
       <c r="B115">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -34147,10 +34147,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2237</v>
+        <v>2197</v>
       </c>
       <c r="B116">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -34161,7 +34161,7 @@
         <v>2187</v>
       </c>
       <c r="B117">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -34169,10 +34169,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>2187</v>
+        <v>2255</v>
       </c>
       <c r="B118">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -34180,10 +34180,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B119">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -34191,10 +34191,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B120">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -34202,10 +34202,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2255</v>
+        <v>2236</v>
       </c>
       <c r="B121">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -34213,13 +34213,13 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2194</v>
+        <v>2237</v>
       </c>
       <c r="B122">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -34227,7 +34227,7 @@
         <v>2237</v>
       </c>
       <c r="B123">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -34235,10 +34235,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B124">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -34249,18 +34249,18 @@
         <v>2237</v>
       </c>
       <c r="B125">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>2237</v>
+        <v>2256</v>
       </c>
       <c r="B126">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -34268,10 +34268,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>2237</v>
+        <v>2253</v>
       </c>
       <c r="B127">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -34279,10 +34279,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>2237</v>
+        <v>2195</v>
       </c>
       <c r="B128">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -34290,10 +34290,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>2256</v>
+        <v>2237</v>
       </c>
       <c r="B129">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -34301,10 +34301,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>2253</v>
+        <v>2187</v>
       </c>
       <c r="B130">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -34312,10 +34312,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="B131">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -34323,10 +34323,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B132">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -34337,7 +34337,7 @@
         <v>2187</v>
       </c>
       <c r="B133">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -34345,10 +34345,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="B134">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -34356,10 +34356,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>2187</v>
+        <v>2261</v>
       </c>
       <c r="B135">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -34367,10 +34367,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B136">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -34378,10 +34378,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2196</v>
+        <v>2237</v>
       </c>
       <c r="B137">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -34389,10 +34389,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B138">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -34400,10 +34400,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B139">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -34414,7 +34414,7 @@
         <v>2237</v>
       </c>
       <c r="B140">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -34422,10 +34422,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B141">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -34433,10 +34433,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2187</v>
+        <v>2204</v>
       </c>
       <c r="B142">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -34444,10 +34444,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>2237</v>
+        <v>2217</v>
       </c>
       <c r="B143">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -34455,10 +34455,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B144">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -34466,10 +34466,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>2204</v>
+        <v>2188</v>
       </c>
       <c r="B145">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -34477,10 +34477,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2217</v>
+        <v>2197</v>
       </c>
       <c r="B146">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -34488,10 +34488,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2264</v>
+        <v>2246</v>
       </c>
       <c r="B147">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -34499,10 +34499,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2188</v>
+        <v>2246</v>
       </c>
       <c r="B148">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -34510,10 +34510,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>2197</v>
+        <v>2246</v>
       </c>
       <c r="B149">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -34524,7 +34524,7 @@
         <v>2246</v>
       </c>
       <c r="B150">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -34532,10 +34532,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>2246</v>
+        <v>2265</v>
       </c>
       <c r="B151">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -34543,10 +34543,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2246</v>
+        <v>2194</v>
       </c>
       <c r="B152">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -34554,10 +34554,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>2246</v>
+        <v>2296</v>
       </c>
       <c r="B153">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -34565,21 +34565,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>2265</v>
+        <v>2188</v>
       </c>
       <c r="B154">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B155">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -34587,54 +34587,54 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>2296</v>
+        <v>2195</v>
       </c>
       <c r="B156">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="B157">
         <v>455</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2192</v>
+        <v>2259</v>
       </c>
       <c r="B158">
         <v>455</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>2195</v>
+        <v>2266</v>
       </c>
       <c r="B159">
         <v>455</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="B160">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -34642,21 +34642,21 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>2259</v>
+        <v>2187</v>
       </c>
       <c r="B161">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>2266</v>
+        <v>2237</v>
       </c>
       <c r="B162">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -34664,10 +34664,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="B163">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -34675,10 +34675,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>2187</v>
+        <v>2218</v>
       </c>
       <c r="B164">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -34686,10 +34686,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>2237</v>
+        <v>2218</v>
       </c>
       <c r="B165">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -34697,10 +34697,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2237</v>
+        <v>2188</v>
       </c>
       <c r="B166">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -34708,10 +34708,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>2218</v>
+        <v>2192</v>
       </c>
       <c r="B167">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -34719,10 +34719,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2218</v>
+        <v>2195</v>
       </c>
       <c r="B168">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -34730,7 +34730,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="B169">
         <v>463</v>
@@ -34741,7 +34741,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>2192</v>
+        <v>2254</v>
       </c>
       <c r="B170">
         <v>463</v>
@@ -34752,7 +34752,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2195</v>
+        <v>2259</v>
       </c>
       <c r="B171">
         <v>463</v>
@@ -34763,7 +34763,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2197</v>
+        <v>2267</v>
       </c>
       <c r="B172">
         <v>463</v>
@@ -34774,18 +34774,18 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2254</v>
+        <v>2219</v>
       </c>
       <c r="B173">
         <v>463</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>2259</v>
+        <v>2268</v>
       </c>
       <c r="B174">
         <v>463</v>
@@ -34796,7 +34796,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>2267</v>
+        <v>2220</v>
       </c>
       <c r="B175">
         <v>463</v>
@@ -34807,29 +34807,29 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2219</v>
+        <v>2269</v>
       </c>
       <c r="B176">
         <v>463</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>2268</v>
+        <v>2221</v>
       </c>
       <c r="B177">
         <v>463</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>2220</v>
+        <v>2270</v>
       </c>
       <c r="B178">
         <v>463</v>
@@ -34840,7 +34840,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="B179">
         <v>463</v>
@@ -34851,18 +34851,18 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>2221</v>
+        <v>2272</v>
       </c>
       <c r="B180">
         <v>463</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B181">
         <v>463</v>
@@ -34873,7 +34873,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B182">
         <v>463</v>
@@ -34884,7 +34884,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="B183">
         <v>463</v>
@@ -34895,7 +34895,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="B184">
         <v>463</v>
@@ -34906,7 +34906,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B185">
         <v>463</v>
@@ -34917,7 +34917,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B186">
         <v>463</v>
@@ -34928,7 +34928,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="B187">
         <v>463</v>
@@ -34939,7 +34939,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>2277</v>
+        <v>2222</v>
       </c>
       <c r="B188">
         <v>463</v>
@@ -34950,10 +34950,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>2278</v>
+        <v>2237</v>
       </c>
       <c r="B189">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -34961,10 +34961,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>2279</v>
+        <v>2192</v>
       </c>
       <c r="B190">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -34972,10 +34972,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B191">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -34983,10 +34983,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>2237</v>
+        <v>2223</v>
       </c>
       <c r="B192">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -34994,10 +34994,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="B193">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -35005,10 +35005,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>2223</v>
+        <v>2193</v>
       </c>
       <c r="B194">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -35016,10 +35016,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2223</v>
+        <v>2280</v>
       </c>
       <c r="B195">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -35027,21 +35027,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="B196">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>2193</v>
+        <v>2296</v>
       </c>
       <c r="B197">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -35049,10 +35049,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>2280</v>
+        <v>2246</v>
       </c>
       <c r="B198">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -35060,21 +35060,21 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>2244</v>
+        <v>2224</v>
       </c>
       <c r="B199">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>2296</v>
+        <v>2193</v>
       </c>
       <c r="B200">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -35082,10 +35082,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>2246</v>
+        <v>2197</v>
       </c>
       <c r="B201">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -35093,10 +35093,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2224</v>
+        <v>2237</v>
       </c>
       <c r="B202">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -35104,10 +35104,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2193</v>
+        <v>2245</v>
       </c>
       <c r="B203">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -35115,21 +35115,21 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>2197</v>
+        <v>2244</v>
       </c>
       <c r="B204">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>2237</v>
+        <v>2281</v>
       </c>
       <c r="B205">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -35137,10 +35137,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>2245</v>
+        <v>2282</v>
       </c>
       <c r="B206">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -35148,21 +35148,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="B207">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>2281</v>
+        <v>2244</v>
       </c>
       <c r="B208">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -35170,10 +35170,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2282</v>
+        <v>2196</v>
       </c>
       <c r="B209">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -35181,7 +35181,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2237</v>
+        <v>2283</v>
       </c>
       <c r="B210">
         <v>477</v>
@@ -35192,10 +35192,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>2244</v>
+        <v>2188</v>
       </c>
       <c r="B211">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -35203,10 +35203,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="B212">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -35214,10 +35214,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>2283</v>
+        <v>2266</v>
       </c>
       <c r="B213">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>2188</v>
+        <v>2280</v>
       </c>
       <c r="B214">
         <v>478</v>
@@ -35236,10 +35236,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="B215">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -35247,10 +35247,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>2266</v>
+        <v>2193</v>
       </c>
       <c r="B216">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -35258,10 +35258,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>2280</v>
+        <v>2254</v>
       </c>
       <c r="B217">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -35269,7 +35269,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>2188</v>
+        <v>2266</v>
       </c>
       <c r="B218">
         <v>479</v>
@@ -35280,10 +35280,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2193</v>
+        <v>2237</v>
       </c>
       <c r="B219">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -35291,10 +35291,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>2254</v>
+        <v>2237</v>
       </c>
       <c r="B220">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -35302,10 +35302,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="B221">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -35313,10 +35313,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2237</v>
+        <v>2284</v>
       </c>
       <c r="B222">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -35324,10 +35324,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>2237</v>
+        <v>2285</v>
       </c>
       <c r="B223">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -35335,32 +35335,32 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>2261</v>
+        <v>2188</v>
       </c>
       <c r="B224">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>2284</v>
+        <v>2195</v>
       </c>
       <c r="B225">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>2285</v>
+        <v>2246</v>
       </c>
       <c r="B226">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -35368,7 +35368,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="B227">
         <v>483</v>
@@ -35379,7 +35379,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>2195</v>
+        <v>2254</v>
       </c>
       <c r="B228">
         <v>483</v>
@@ -35390,73 +35390,73 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>2246</v>
+        <v>2259</v>
       </c>
       <c r="B229">
         <v>483</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>2197</v>
+        <v>2223</v>
       </c>
       <c r="B230">
         <v>483</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>2254</v>
+        <v>2280</v>
       </c>
       <c r="B231">
         <v>483</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>2259</v>
+        <v>2225</v>
       </c>
       <c r="B232">
         <v>483</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>2223</v>
+        <v>2260</v>
       </c>
       <c r="B233">
         <v>483</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>2280</v>
+        <v>2296</v>
       </c>
       <c r="B234">
         <v>483</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>2225</v>
+        <v>2297</v>
       </c>
       <c r="B235">
         <v>483</v>
@@ -35467,21 +35467,21 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>2260</v>
+        <v>2237</v>
       </c>
       <c r="B236">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>2296</v>
+        <v>2194</v>
       </c>
       <c r="B237">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -35489,10 +35489,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>2297</v>
+        <v>2200</v>
       </c>
       <c r="B238">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -35500,10 +35500,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>2237</v>
+        <v>2223</v>
       </c>
       <c r="B239">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -35511,10 +35511,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>2194</v>
+        <v>2226</v>
       </c>
       <c r="B240">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -35522,10 +35522,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>2200</v>
+        <v>2261</v>
       </c>
       <c r="B241">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -35533,10 +35533,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
       <c r="B242">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -35544,10 +35544,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>2226</v>
+        <v>2193</v>
       </c>
       <c r="B243">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -35555,10 +35555,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>2261</v>
+        <v>2195</v>
       </c>
       <c r="B244">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -35566,10 +35566,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>2229</v>
+        <v>2197</v>
       </c>
       <c r="B245">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -35577,7 +35577,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>2193</v>
+        <v>2294</v>
       </c>
       <c r="B246">
         <v>492</v>
@@ -35588,7 +35588,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>2195</v>
+        <v>2230</v>
       </c>
       <c r="B247">
         <v>492</v>
@@ -35599,7 +35599,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>2197</v>
+        <v>2231</v>
       </c>
       <c r="B248">
         <v>492</v>
@@ -35610,21 +35610,21 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>2294</v>
+        <v>2193</v>
       </c>
       <c r="B249">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>2230</v>
+        <v>2195</v>
       </c>
       <c r="B250">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -35632,10 +35632,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>2231</v>
+        <v>2197</v>
       </c>
       <c r="B251">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -35643,18 +35643,18 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>2193</v>
+        <v>2294</v>
       </c>
       <c r="B252">
         <v>493</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>2195</v>
+        <v>2230</v>
       </c>
       <c r="B253">
         <v>493</v>
@@ -35665,10 +35665,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>2197</v>
+        <v>2223</v>
       </c>
       <c r="B254">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -35676,10 +35676,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>2294</v>
+        <v>2246</v>
       </c>
       <c r="B255">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -35687,10 +35687,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>2230</v>
+        <v>2295</v>
       </c>
       <c r="B256">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -35698,10 +35698,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>2223</v>
+        <v>2246</v>
       </c>
       <c r="B257">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -35712,7 +35712,7 @@
         <v>2246</v>
       </c>
       <c r="B258">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -35720,10 +35720,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>2295</v>
+        <v>2223</v>
       </c>
       <c r="B259">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -35731,10 +35731,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>2246</v>
+        <v>2194</v>
       </c>
       <c r="B260">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -35742,21 +35742,21 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>2246</v>
+        <v>2193</v>
       </c>
       <c r="B261">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>2223</v>
+        <v>2194</v>
       </c>
       <c r="B262">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -35764,10 +35764,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>2194</v>
+        <v>2244</v>
       </c>
       <c r="B263">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>2193</v>
+        <v>2296</v>
       </c>
       <c r="B264">
         <v>502</v>
@@ -35786,76 +35786,76 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B265">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="B266">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>2296</v>
+        <v>2259</v>
       </c>
       <c r="B267">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>2195</v>
+        <v>2260</v>
       </c>
       <c r="B268">
         <v>503</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>2247</v>
+        <v>2225</v>
       </c>
       <c r="B269">
         <v>503</v>
       </c>
       <c r="C269">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>2259</v>
+        <v>2296</v>
       </c>
       <c r="B270">
         <v>503</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="B271">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -35863,32 +35863,32 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>2225</v>
+        <v>2237</v>
       </c>
       <c r="B272">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>2296</v>
+        <v>2193</v>
       </c>
       <c r="B273">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2229</v>
+        <v>2246</v>
       </c>
       <c r="B274">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -35896,10 +35896,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>2237</v>
+        <v>2260</v>
       </c>
       <c r="B275">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>2193</v>
+        <v>2226</v>
       </c>
       <c r="B276">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -35918,10 +35918,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>2246</v>
+        <v>2188</v>
       </c>
       <c r="B277">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -35929,10 +35929,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>2260</v>
+        <v>2195</v>
       </c>
       <c r="B278">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -35940,18 +35940,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>2226</v>
+        <v>2246</v>
       </c>
       <c r="B279">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>2188</v>
+        <v>2280</v>
       </c>
       <c r="B280">
         <v>514</v>
@@ -35962,7 +35962,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2195</v>
+        <v>2229</v>
       </c>
       <c r="B281">
         <v>514</v>
@@ -35973,7 +35973,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>2246</v>
+        <v>2298</v>
       </c>
       <c r="B282">
         <v>514</v>
@@ -35984,21 +35984,21 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>2280</v>
+        <v>2299</v>
       </c>
       <c r="B283">
         <v>514</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="B284">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -36006,10 +36006,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>2298</v>
+        <v>2223</v>
       </c>
       <c r="B285">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -36017,21 +36017,21 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>2299</v>
+        <v>2246</v>
       </c>
       <c r="B286">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>2223</v>
+        <v>2237</v>
       </c>
       <c r="B287">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -36039,10 +36039,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>2223</v>
+        <v>2188</v>
       </c>
       <c r="B288">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -36050,13 +36050,13 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>2246</v>
+        <v>2193</v>
       </c>
       <c r="B289">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -36064,7 +36064,7 @@
         <v>2237</v>
       </c>
       <c r="B290">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -36072,32 +36072,32 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>2188</v>
+        <v>2193</v>
       </c>
       <c r="B291">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>2193</v>
+        <v>2237</v>
       </c>
       <c r="B292">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>2237</v>
+        <v>2187</v>
       </c>
       <c r="B293">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -36105,29 +36105,29 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="B294">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>2237</v>
+        <v>2195</v>
       </c>
       <c r="B295">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="B296">
         <v>523</v>
@@ -36138,29 +36138,29 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="B297">
         <v>523</v>
       </c>
       <c r="C297">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>2195</v>
+        <v>2260</v>
       </c>
       <c r="B298">
         <v>523</v>
       </c>
       <c r="C298">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>2196</v>
+        <v>2300</v>
       </c>
       <c r="B299">
         <v>523</v>
@@ -36171,7 +36171,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>2197</v>
+        <v>2301</v>
       </c>
       <c r="B300">
         <v>523</v>
@@ -36182,7 +36182,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>2260</v>
+        <v>2302</v>
       </c>
       <c r="B301">
         <v>523</v>
@@ -36193,32 +36193,32 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="B302">
         <v>523</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>2301</v>
+        <v>2237</v>
       </c>
       <c r="B303">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>2302</v>
+        <v>2259</v>
       </c>
       <c r="B304">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -36226,21 +36226,21 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="B305">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>2237</v>
+        <v>2201</v>
       </c>
       <c r="B306">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -36248,10 +36248,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>2259</v>
+        <v>2192</v>
       </c>
       <c r="B307">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -36259,10 +36259,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>2304</v>
+        <v>2250</v>
       </c>
       <c r="B308">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -36270,10 +36270,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>2201</v>
+        <v>2251</v>
       </c>
       <c r="B309">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -36281,7 +36281,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>2192</v>
+        <v>2275</v>
       </c>
       <c r="B310">
         <v>531</v>
@@ -36292,10 +36292,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>2250</v>
+        <v>2188</v>
       </c>
       <c r="B311">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -36303,10 +36303,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>2251</v>
+        <v>2196</v>
       </c>
       <c r="B312">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -36314,10 +36314,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>2275</v>
+        <v>2259</v>
       </c>
       <c r="B313">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -36325,10 +36325,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>2188</v>
+        <v>2259</v>
       </c>
       <c r="B314">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -36336,10 +36336,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B315">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -36347,10 +36347,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>2259</v>
+        <v>2195</v>
       </c>
       <c r="B316">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -36358,10 +36358,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="B317">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -36369,10 +36369,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="B318">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -36380,10 +36380,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>2195</v>
+        <v>2259</v>
       </c>
       <c r="B319">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -36391,10 +36391,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>2254</v>
+        <v>2188</v>
       </c>
       <c r="B320">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -36402,10 +36402,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>2197</v>
+        <v>2247</v>
       </c>
       <c r="B321">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -36416,7 +36416,7 @@
         <v>2259</v>
       </c>
       <c r="B322">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -36424,10 +36424,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="B323">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -36435,10 +36435,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>2247</v>
+        <v>2197</v>
       </c>
       <c r="B324">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -36446,10 +36446,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>2259</v>
+        <v>2192</v>
       </c>
       <c r="B325">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -36457,10 +36457,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>2192</v>
+        <v>2259</v>
       </c>
       <c r="B326">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -36468,10 +36468,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>2197</v>
+        <v>2259</v>
       </c>
       <c r="B327">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -36479,10 +36479,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="B328">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -36493,7 +36493,7 @@
         <v>2259</v>
       </c>
       <c r="B329">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -36501,10 +36501,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>2259</v>
+        <v>2187</v>
       </c>
       <c r="B330">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -36512,10 +36512,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="B331">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -36523,10 +36523,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>2259</v>
+        <v>2237</v>
       </c>
       <c r="B332">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -36534,10 +36534,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>2187</v>
+        <v>2246</v>
       </c>
       <c r="B333">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -36545,10 +36545,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="B334">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -36559,7 +36559,7 @@
         <v>2237</v>
       </c>
       <c r="B335">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -36567,10 +36567,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>2246</v>
+        <v>2232</v>
       </c>
       <c r="B336">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -36578,10 +36578,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="B337">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -36592,7 +36592,7 @@
         <v>2237</v>
       </c>
       <c r="B338">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -36600,10 +36600,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>2232</v>
+        <v>2197</v>
       </c>
       <c r="B339">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -36611,10 +36611,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>2245</v>
+        <v>2259</v>
       </c>
       <c r="B340">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -36622,10 +36622,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>2237</v>
+        <v>2246</v>
       </c>
       <c r="B341">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -36633,10 +36633,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>2197</v>
+        <v>2261</v>
       </c>
       <c r="B342">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -36644,10 +36644,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>2259</v>
+        <v>2187</v>
       </c>
       <c r="B343">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -36655,10 +36655,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>2246</v>
+        <v>2232</v>
       </c>
       <c r="B344">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -36666,10 +36666,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>2261</v>
+        <v>2187</v>
       </c>
       <c r="B345">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -36677,10 +36677,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="B346">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -36688,10 +36688,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2232</v>
+        <v>2188</v>
       </c>
       <c r="B347">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -36699,7 +36699,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B348">
         <v>621</v>
@@ -36710,7 +36710,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2237</v>
+        <v>2195</v>
       </c>
       <c r="B349">
         <v>621</v>
@@ -36721,7 +36721,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="B350">
         <v>621</v>
@@ -36732,7 +36732,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2193</v>
+        <v>2259</v>
       </c>
       <c r="B351">
         <v>621</v>
@@ -36743,7 +36743,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2195</v>
+        <v>2230</v>
       </c>
       <c r="B352">
         <v>621</v>
@@ -36754,10 +36754,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="B353">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -36765,21 +36765,21 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2259</v>
+        <v>2193</v>
       </c>
       <c r="B354">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>2230</v>
+        <v>2262</v>
       </c>
       <c r="B355">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -36787,7 +36787,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>2188</v>
+        <v>2272</v>
       </c>
       <c r="B356">
         <v>622</v>
@@ -36798,21 +36798,21 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2193</v>
+        <v>2252</v>
       </c>
       <c r="B357">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C357">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2262</v>
+        <v>2207</v>
       </c>
       <c r="B358">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -36820,10 +36820,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2272</v>
+        <v>2231</v>
       </c>
       <c r="B359">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -36831,10 +36831,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2252</v>
+        <v>2233</v>
       </c>
       <c r="B360">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -36842,10 +36842,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2207</v>
+        <v>2251</v>
       </c>
       <c r="B361">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -36853,10 +36853,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2231</v>
+        <v>2252</v>
       </c>
       <c r="B362">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -36864,10 +36864,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2233</v>
+        <v>2197</v>
       </c>
       <c r="B363">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -36878,7 +36878,7 @@
         <v>2251</v>
       </c>
       <c r="B364">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -36886,10 +36886,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2252</v>
+        <v>2218</v>
       </c>
       <c r="B365">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -36897,7 +36897,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2197</v>
+        <v>2294</v>
       </c>
       <c r="B366">
         <v>626</v>
@@ -36908,10 +36908,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>2251</v>
+        <v>2296</v>
       </c>
       <c r="B367">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -36919,10 +36919,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2218</v>
+        <v>2305</v>
       </c>
       <c r="B368">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -36930,10 +36930,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>2294</v>
+        <v>2306</v>
       </c>
       <c r="B369">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -36941,21 +36941,21 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2296</v>
+        <v>2244</v>
       </c>
       <c r="B370">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>2305</v>
+        <v>2246</v>
       </c>
       <c r="B371">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -36963,10 +36963,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2306</v>
+        <v>2234</v>
       </c>
       <c r="B372">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -36974,21 +36974,21 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2244</v>
+        <v>2307</v>
       </c>
       <c r="B373">
         <v>630</v>
       </c>
       <c r="C373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2246</v>
+        <v>2223</v>
       </c>
       <c r="B374">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -36996,10 +36996,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2234</v>
+        <v>2193</v>
       </c>
       <c r="B375">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -37007,10 +37007,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2307</v>
+        <v>2195</v>
       </c>
       <c r="B376">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -37018,10 +37018,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>2223</v>
+        <v>2197</v>
       </c>
       <c r="B377">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -37029,10 +37029,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>2193</v>
+        <v>2218</v>
       </c>
       <c r="B378">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -37040,7 +37040,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2195</v>
+        <v>2301</v>
       </c>
       <c r="B379">
         <v>633</v>
@@ -37051,7 +37051,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>2197</v>
+        <v>2303</v>
       </c>
       <c r="B380">
         <v>633</v>
@@ -37062,7 +37062,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>2218</v>
+        <v>2308</v>
       </c>
       <c r="B381">
         <v>633</v>
@@ -37073,10 +37073,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
       <c r="B382">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -37084,10 +37084,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>2303</v>
+        <v>2237</v>
       </c>
       <c r="B383">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -37095,10 +37095,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="B384">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -37106,10 +37106,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>2309</v>
+        <v>2237</v>
       </c>
       <c r="B385">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -37117,10 +37117,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>2237</v>
+        <v>2188</v>
       </c>
       <c r="B386">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -37128,10 +37128,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>2310</v>
+        <v>2198</v>
       </c>
       <c r="B387">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -37139,10 +37139,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>2237</v>
+        <v>2223</v>
       </c>
       <c r="B388">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -37150,18 +37150,18 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>2188</v>
+        <v>2226</v>
       </c>
       <c r="B389">
         <v>638</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>2198</v>
+        <v>2227</v>
       </c>
       <c r="B390">
         <v>638</v>
@@ -37172,73 +37172,73 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>2223</v>
+        <v>2311</v>
       </c>
       <c r="B391">
         <v>638</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
       <c r="B392">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C392">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>2227</v>
+        <v>2193</v>
       </c>
       <c r="B393">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>2311</v>
+        <v>2237</v>
       </c>
       <c r="B394">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>2237</v>
+        <v>2272</v>
       </c>
       <c r="B395">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>2193</v>
+        <v>2273</v>
       </c>
       <c r="B396">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>2237</v>
+        <v>2275</v>
       </c>
       <c r="B397">
         <v>640</v>
@@ -37249,18 +37249,18 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>2272</v>
+        <v>2312</v>
       </c>
       <c r="B398">
         <v>640</v>
       </c>
       <c r="C398">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>2273</v>
+        <v>2313</v>
       </c>
       <c r="B399">
         <v>640</v>
@@ -37271,10 +37271,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>2275</v>
+        <v>2237</v>
       </c>
       <c r="B400">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -37282,10 +37282,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="B401">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -37293,10 +37293,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>2313</v>
+        <v>2223</v>
       </c>
       <c r="B402">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -37304,10 +37304,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>2237</v>
+        <v>2314</v>
       </c>
       <c r="B403">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -37315,10 +37315,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>2188</v>
+        <v>2237</v>
       </c>
       <c r="B404">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -37326,10 +37326,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>2223</v>
+        <v>2195</v>
       </c>
       <c r="B405">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -37337,10 +37337,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>2314</v>
+        <v>2260</v>
       </c>
       <c r="B406">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -37348,7 +37348,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>2237</v>
+        <v>2218</v>
       </c>
       <c r="B407">
         <v>645</v>
@@ -37359,7 +37359,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>2195</v>
+        <v>2225</v>
       </c>
       <c r="B408">
         <v>645</v>
@@ -37370,7 +37370,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>2260</v>
+        <v>2315</v>
       </c>
       <c r="B409">
         <v>645</v>
@@ -37381,10 +37381,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>2218</v>
+        <v>2223</v>
       </c>
       <c r="B410">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -37392,10 +37392,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>2225</v>
+        <v>2246</v>
       </c>
       <c r="B411">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -37403,10 +37403,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>2315</v>
+        <v>2237</v>
       </c>
       <c r="B412">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -37414,21 +37414,21 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>2223</v>
+        <v>2193</v>
       </c>
       <c r="B413">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>2246</v>
+        <v>2188</v>
       </c>
       <c r="B414">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -37436,10 +37436,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>2237</v>
+        <v>2247</v>
       </c>
       <c r="B415">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -37447,13 +37447,13 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>2193</v>
+        <v>2223</v>
       </c>
       <c r="B416">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -37461,7 +37461,7 @@
         <v>2188</v>
       </c>
       <c r="B417">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -37469,10 +37469,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>2247</v>
+        <v>2218</v>
       </c>
       <c r="B418">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -37480,10 +37480,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>2223</v>
+        <v>2306</v>
       </c>
       <c r="B419">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -37491,10 +37491,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B420">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -37502,10 +37502,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>2218</v>
+        <v>2272</v>
       </c>
       <c r="B421">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -37513,32 +37513,32 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>2306</v>
+        <v>2193</v>
       </c>
       <c r="B422">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>2187</v>
+        <v>2244</v>
       </c>
       <c r="B423">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>2272</v>
+        <v>2316</v>
       </c>
       <c r="B424">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -37549,29 +37549,29 @@
         <v>2193</v>
       </c>
       <c r="B425">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B426">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>2316</v>
+        <v>2260</v>
       </c>
       <c r="B427">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -37579,18 +37579,18 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>2193</v>
+        <v>2317</v>
       </c>
       <c r="B428">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C428">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>2246</v>
+        <v>2318</v>
       </c>
       <c r="B429">
         <v>655</v>
@@ -37601,7 +37601,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>2260</v>
+        <v>2319</v>
       </c>
       <c r="B430">
         <v>655</v>
@@ -37612,10 +37612,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>2317</v>
+        <v>2204</v>
       </c>
       <c r="B431">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -37623,10 +37623,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>2318</v>
+        <v>2261</v>
       </c>
       <c r="B432">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -37634,10 +37634,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>2319</v>
+        <v>2223</v>
       </c>
       <c r="B433">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -37645,21 +37645,21 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>2204</v>
+        <v>2246</v>
       </c>
       <c r="B434">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>2261</v>
+        <v>2296</v>
       </c>
       <c r="B435">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -37667,10 +37667,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>2223</v>
+        <v>2192</v>
       </c>
       <c r="B436">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -37678,21 +37678,21 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>2246</v>
+        <v>2187</v>
       </c>
       <c r="B437">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>2296</v>
+        <v>2246</v>
       </c>
       <c r="B438">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -37700,10 +37700,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B439">
-        <v>663</v>
+        <v>2245</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2113</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -37711,10 +37711,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B440">
-        <v>666</v>
+        <v>2193</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2117</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -37722,10 +37722,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B441">
-        <v>671</v>
+        <v>2193</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2118</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -37733,10 +37733,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="B442" t="s">
-        <v>2113</v>
+        <v>2121</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -37744,10 +37744,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>2193</v>
+        <v>2241</v>
       </c>
       <c r="B443" t="s">
-        <v>2117</v>
+        <v>2132</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -37755,10 +37755,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>2193</v>
+        <v>2242</v>
       </c>
       <c r="B444" t="s">
-        <v>2118</v>
+        <v>2132</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -37766,10 +37766,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>2251</v>
+        <v>2187</v>
       </c>
       <c r="B445" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -37777,10 +37777,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>2241</v>
+        <v>2194</v>
       </c>
       <c r="B446" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -37788,10 +37788,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>2242</v>
+        <v>2187</v>
       </c>
       <c r="B447" t="s">
-        <v>2132</v>
+        <v>2123</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -37799,10 +37799,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B448" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -37813,7 +37813,7 @@
         <v>2194</v>
       </c>
       <c r="B449" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -37821,7 +37821,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="B450" t="s">
         <v>2123</v>
@@ -37832,7 +37832,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>2188</v>
+        <v>2247</v>
       </c>
       <c r="B451" t="s">
         <v>2123</v>
@@ -37843,7 +37843,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B452" t="s">
         <v>2123</v>
@@ -37854,7 +37854,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>2195</v>
+        <v>2257</v>
       </c>
       <c r="B453" t="s">
         <v>2123</v>
@@ -37865,7 +37865,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>2247</v>
+        <v>2258</v>
       </c>
       <c r="B454" t="s">
         <v>2123</v>
@@ -37876,7 +37876,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>2197</v>
+        <v>2215</v>
       </c>
       <c r="B455" t="s">
         <v>2123</v>
@@ -37887,7 +37887,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>2257</v>
+        <v>2216</v>
       </c>
       <c r="B456" t="s">
         <v>2123</v>
@@ -37898,7 +37898,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B457" t="s">
         <v>2123</v>
@@ -37909,7 +37909,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>2215</v>
+        <v>2260</v>
       </c>
       <c r="B458" t="s">
         <v>2123</v>
@@ -37920,10 +37920,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>2216</v>
+        <v>2246</v>
       </c>
       <c r="B459" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -37931,21 +37931,21 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>2259</v>
+        <v>2216</v>
       </c>
       <c r="B460" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>2260</v>
+        <v>2187</v>
       </c>
       <c r="B461" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -37953,73 +37953,73 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>2246</v>
+        <v>2192</v>
       </c>
       <c r="B462" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>2216</v>
+        <v>2193</v>
       </c>
       <c r="B463" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C463">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="B464" t="s">
         <v>2130</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>2192</v>
+        <v>2245</v>
       </c>
       <c r="B465" t="s">
         <v>2130</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B466" t="s">
         <v>2130</v>
       </c>
       <c r="C466">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>2194</v>
+        <v>2200</v>
       </c>
       <c r="B467" t="s">
         <v>2130</v>
       </c>
       <c r="C467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>2245</v>
+        <v>2201</v>
       </c>
       <c r="B468" t="s">
         <v>2130</v>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>2196</v>
+        <v>2204</v>
       </c>
       <c r="B469" t="s">
         <v>2130</v>
@@ -38041,7 +38041,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>2200</v>
+        <v>2264</v>
       </c>
       <c r="B470" t="s">
         <v>2130</v>
@@ -38052,7 +38052,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>2201</v>
+        <v>2218</v>
       </c>
       <c r="B471" t="s">
         <v>2130</v>
@@ -38063,18 +38063,18 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2204</v>
+        <v>2223</v>
       </c>
       <c r="B472" t="s">
         <v>2130</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>2264</v>
+        <v>2284</v>
       </c>
       <c r="B473" t="s">
         <v>2130</v>
@@ -38085,7 +38085,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="B474" t="s">
         <v>2130</v>
@@ -38096,18 +38096,18 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>2223</v>
+        <v>2286</v>
       </c>
       <c r="B475" t="s">
         <v>2130</v>
       </c>
       <c r="C475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B476" t="s">
         <v>2130</v>
@@ -38118,7 +38118,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>2225</v>
+        <v>2288</v>
       </c>
       <c r="B477" t="s">
         <v>2130</v>
@@ -38129,7 +38129,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B478" t="s">
         <v>2130</v>
@@ -38140,7 +38140,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B479" t="s">
         <v>2130</v>
@@ -38151,7 +38151,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>2288</v>
+        <v>2226</v>
       </c>
       <c r="B480" t="s">
         <v>2130</v>
@@ -38162,7 +38162,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="B481" t="s">
         <v>2130</v>
@@ -38173,7 +38173,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="B482" t="s">
         <v>2130</v>
@@ -38184,7 +38184,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="B483" t="s">
         <v>2130</v>
@@ -38195,7 +38195,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="B484" t="s">
         <v>2130</v>
@@ -38206,7 +38206,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>2292</v>
+        <v>2228</v>
       </c>
       <c r="B485" t="s">
         <v>2130</v>
@@ -38217,10 +38217,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="B486" t="s">
-        <v>2130</v>
+        <v>1747</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -38228,10 +38228,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B487" t="s">
-        <v>2130</v>
+        <v>2246</v>
+      </c>
+      <c r="B487">
+        <v>701</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -38239,45 +38239,12 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B488" t="s">
-        <v>2130</v>
+        <v>2246</v>
+      </c>
+      <c r="B488">
+        <v>703</v>
       </c>
       <c r="C488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B490">
-        <v>701</v>
-      </c>
-      <c r="C490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B491">
-        <v>703</v>
-      </c>
-      <c r="C491">
         <v>1</v>
       </c>
     </row>
@@ -38293,13 +38260,13 @@
           <x14:formula1>
             <xm:f>Honor!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A1:A1048573</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75B4B27E-0746-2C42-80E9-E29DD5EF4536}">
           <x14:formula1>
             <xm:f>Inscription!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B1048573</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidthomas/Git/brown-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA26EFE-F259-3743-A2EA-B44938117870}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19514AE1-6108-6741-A801-8ED774899DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="12" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
     <sheet name="Person in Inscription" sheetId="12" r:id="rId12"/>
     <sheet name="Person Honor Display" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames>
-    <definedName name="Honor" localSheetId="3">Honor!$A$1:$F$141</definedName>
-    <definedName name="Honor_in_Inscription" localSheetId="8">'Honor in Inscription'!$A$1:$D$492</definedName>
-    <definedName name="Inscription" localSheetId="0">Inscription!$A$1:$M$427</definedName>
-    <definedName name="Inscription_Feature" localSheetId="4">'Inscription Feature'!$A$1:$E$636</definedName>
-    <definedName name="Inscription_Macroscopic" localSheetId="7">'Inscription Macroscopic'!$A$1:$K$680</definedName>
-    <definedName name="Inscription_Multistone" localSheetId="5">'Inscription Multistone'!$A$1:$C$30</definedName>
-    <definedName name="Inscription_Reference" localSheetId="6">'Inscription Reference'!$A$1:$E$503</definedName>
-    <definedName name="Institution" localSheetId="1">Institution!$A$1:$F$26</definedName>
-    <definedName name="Institution_Honor" localSheetId="9">'Institution Honor'!$A$1:$C$51</definedName>
-    <definedName name="Institution_Sponsorship" localSheetId="10">'Institution Sponsor'!$A$1:$E$226</definedName>
-    <definedName name="Person" localSheetId="2">Person!$A$1:$P$540</definedName>
-    <definedName name="Person_Honor_Display" localSheetId="12">'Person Honor Display'!$A$1:$E$518</definedName>
-    <definedName name="Person_in_Inscription" localSheetId="11">'Person in Inscription'!$A$1:$D$692</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,177 +42,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5AD6806A-D913-AD47-A67B-B94A94ED103D}" name="Honor" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Honor.csv" tab="0" comma="1">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" xr16:uid="{13D600B9-EAEB-FE48-BB7C-0CAB5D8906D6}" name="Honor in Inscription" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Honor in Inscription.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" xr16:uid="{D4302EDB-5446-7540-979C-F3555943A962}" name="Inscription" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Inscription.csv" tab="0" comma="1">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" xr16:uid="{A0E9CB3D-D84E-AD46-A205-AF1A00B4EBA3}" name="Inscription Feature" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Inscription Feature.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="5" xr16:uid="{E48D42FC-C7AE-D946-82AC-63C5AD446A36}" name="Inscription Macroscopic" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Inscription Macroscopic.csv" tab="0" comma="1">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="6" xr16:uid="{D38656E9-9B8C-EB45-B01A-DB653162EBD4}" name="Inscription Multistone" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Inscription Multistone.csv" tab="0" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="7" xr16:uid="{6DFD4C03-2351-7049-81BB-1B72085CD6CF}" name="Inscription Reference" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Inscription Reference.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="8" xr16:uid="{26F9DE31-FAFE-794F-9DDB-FC01601F1DE7}" name="Institution" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Institution.csv" tab="0" comma="1">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="9" xr16:uid="{94D7AEF2-3632-8243-9C73-8A667556DCC3}" name="Institution Honor" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Institution Honor.csv" tab="0" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="10" xr16:uid="{8F4AE480-E21A-644E-A1B2-2D18188511A6}" name="Institution Sponsorship" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Institution Sponsorship.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="11" xr16:uid="{19B6F6C9-A03B-A04D-AC3B-024B0F03A092}" name="Person" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Person.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="12" xr16:uid="{C720D2F7-74A7-534C-853B-A0F201D988D3}" name="Person Honor Display" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Person Honor Display.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="13" xr16:uid="{EAA83F49-05F2-FA4E-8EE2-F9C5A747955F}" name="Person in Inscription" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/davidthomas/Git/brown-diss/import_data/Person in Inscription.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12998" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12998" uniqueCount="2134">
   <si>
     <t>ID</t>
   </si>
@@ -6626,6 +6442,9 @@
   </si>
   <si>
     <t>Honorand</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -6680,56 +6499,207 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Inscription" connectionId="3" xr16:uid="{0E191096-E182-C348-B934-5E51EF8D5718}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA6A544B-D3BF-B547-B7C4-9FD0AB916D01}" name="Inscriptions" displayName="Inscriptions" ref="A1:M427" totalsRowShown="0">
+  <autoFilter ref="A1:M427" xr:uid="{C554A75D-81B4-CE4A-9AFF-EEF1CB75A31F}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4F5AF829-1AC7-7342-A9D5-8CE5B23CC53E}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{6D24A295-08C6-394F-B60C-9DBA83FA601A}" name="IE"/>
+    <tableColumn id="3" xr3:uid="{356DDCF0-BB9B-6447-B405-D9EF92FA61C9}" name="Inscription"/>
+    <tableColumn id="4" xr3:uid="{0D1754CE-C3BD-C843-BB83-6B2F41C42AD7}" name="Object Type"/>
+    <tableColumn id="5" xr3:uid="{3A412424-FB2D-EF43-95FE-00032C9B8A50}" name="Inscription Type"/>
+    <tableColumn id="6" xr3:uid="{0068E214-3903-9A47-B10E-123FE0EE4A2E}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{0D284548-1FBA-A947-9B66-D33E7A4918DD}" name="Low Date"/>
+    <tableColumn id="8" xr3:uid="{29A5B4D6-B6C1-A742-89FF-95313888CDBB}" name="High Date"/>
+    <tableColumn id="9" xr3:uid="{955FCDAF-B27F-E341-8B04-2312E8079634}" name="Date"/>
+    <tableColumn id="10" xr3:uid="{5B74AA76-9593-6F4F-B5A6-972768D5AB17}" name="Date Span"/>
+    <tableColumn id="11" xr3:uid="{67BF4EA4-3132-9041-951B-EB5631D70743}" name="Low Date Uncertain"/>
+    <tableColumn id="12" xr3:uid="{33BCFB75-54E4-164B-8656-A3E7A4DC99BB}" name="High Date Uncertain"/>
+    <tableColumn id="13" xr3:uid="{10A7224C-3082-754D-B82D-0DF480398FF6}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Institution Honor" connectionId="9" xr16:uid="{072F9D0A-B91F-A249-BC4E-EAE735E226CE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3DF432E6-E607-4146-8DB3-778C848B8B76}" name="InstitutionHonor" displayName="InstitutionHonor" ref="A1:C51" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{0F9E0EE6-0B8F-2442-9236-C131956A134C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{67052DAC-B68C-1347-81BD-1D7F39E6ABB0}" name="Institution ID"/>
+    <tableColumn id="2" xr3:uid="{6B70E209-38B6-8F4A-8030-2DDE3C0BD628}" name="Honor ID"/>
+    <tableColumn id="3" xr3:uid="{89BBFEC6-5C58-FA44-9672-9809FA213DB8}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Institution Sponsorship" connectionId="10" xr16:uid="{AED64631-06F5-0245-A23F-703CB1E13DA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DFE2E066-AE53-3548-BFA9-46E997C63C98}" name="InstitutionSponsor" displayName="InstitutionSponsor" ref="A1:E226" totalsRowShown="0">
+  <autoFilter ref="A1:E226" xr:uid="{9D614BBC-07E0-AB4B-9F1A-C77688E9193B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4FE69899-64AA-CA4F-8DCF-42E1386834EF}" name="Institution ID"/>
+    <tableColumn id="2" xr3:uid="{1120EE57-3BC7-AC4A-B607-97B618421401}" name="Inscription ID"/>
+    <tableColumn id="3" xr3:uid="{571E4CCF-DB00-A746-83D0-BBEE924D5F9A}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{67B01920-8408-A64B-B6D1-37073EAA0A14}" name="Uncertain"/>
+    <tableColumn id="5" xr3:uid="{3CD76B69-CB6B-DC4D-8BE9-722FBEA66BE5}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Person in Inscription" connectionId="13" xr16:uid="{99EE5CFD-9BEE-1948-AACB-E8107EE749AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6B1D9AB0-FFD6-AC41-A8FF-B7F274F103B4}" name="PersonInInscription" displayName="PersonInInscription" ref="A1:D692" totalsRowShown="0">
+  <autoFilter ref="A1:D692" xr:uid="{6D93D17B-E4D0-D54B-BE5A-130492433544}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FCBCD14E-DDF3-454D-A916-3FCABD4F86C7}" name="Person ID"/>
+    <tableColumn id="2" xr3:uid="{BC336BAE-6D9A-124B-8B38-C0501DE14C4C}" name="Inscription ID"/>
+    <tableColumn id="3" xr3:uid="{27699265-1E2A-E94F-BBB1-440FEDBE6BE5}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{756BA270-7FA3-D34F-A32C-461C09527F86}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Person Honor Display" connectionId="12" xr16:uid="{4A19CF7C-96EB-1B4B-8F04-31B48A7E5858}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0EB08918-3F3F-154B-95AE-2B6EC9A0521F}" name="PersonHonorDisplay" displayName="PersonHonorDisplay" ref="A1:E518" totalsRowShown="0">
+  <autoFilter ref="A1:E518" xr:uid="{EBA468DE-D4C2-BF48-AFD5-80D6F1EE99FB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4A416652-2FBD-8842-827F-7515B6747B7A}" name="Person ID"/>
+    <tableColumn id="2" xr3:uid="{643218A3-A153-F143-8823-52F217B9476D}" name="Honor ID"/>
+    <tableColumn id="3" xr3:uid="{FF63052D-8FB9-6240-9BD9-ED7E7E55BE56}" name="Inscription ID"/>
+    <tableColumn id="4" xr3:uid="{B84B1782-4BFD-F841-B76B-F473BC29B5E1}" name="Uncertain"/>
+    <tableColumn id="5" xr3:uid="{2840E39E-12EA-F54A-A70B-1E2605C9E1AA}" name="Appearances"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Institution" connectionId="8" xr16:uid="{C8807BBB-E08F-7542-9B58-626AB9F80277}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD642A0B-C247-C74A-B5DA-F88267575C38}" name="Institutions" displayName="Institutions" ref="A1:F26" totalsRowShown="0">
+  <autoFilter ref="A1:F26" xr:uid="{AD630532-C26E-7747-B137-3AD08BF9FE24}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7C863CEA-3E92-C346-AD38-F6D4B2006C57}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{3AE89A32-131F-5445-8B27-1E3AE0E531D7}" name="Institution"/>
+    <tableColumn id="3" xr3:uid="{E5035A06-C0A6-CA48-99C4-A8FBFE08DB6E}" name="Origin"/>
+    <tableColumn id="4" xr3:uid="{F090621E-6243-5747-AB17-7D5E6CC08C19}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{A06582C5-7D7D-8D4F-A4E6-24919212EE1D}" name="Category"/>
+    <tableColumn id="6" xr3:uid="{2AD0656F-35DC-4F4A-A0C9-01FED456E181}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Person" connectionId="11" xr16:uid="{B95E6B55-713F-9A4A-A15E-BC2AD6A04F3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A932EFEA-769E-6741-AF94-FAC50E1882F9}" name="People" displayName="People" ref="A1:P540" totalsRowShown="0">
+  <autoFilter ref="A1:P540" xr:uid="{F005076A-8E8E-3B4C-9F02-0C4F9313D8B6}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{9C6C46A7-2F84-4E43-8620-84DB6C74F2F9}" name="ss"/>
+    <tableColumn id="2" xr3:uid="{515E5A13-6935-E441-B0A6-13387AE6A9E6}" name="Person"/>
+    <tableColumn id="3" xr3:uid="{40A5FA94-3CD6-C546-8FEC-69B957E1498F}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{682C165A-E39D-F446-888A-D77FD1D2CFCE}" name="Origin"/>
+    <tableColumn id="5" xr3:uid="{65A40C60-366E-2C4C-9B34-BFEA118CDF88}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{12AA5A54-115A-6B4D-89F0-41035B76E1EF}" name="Athenian Citizen"/>
+    <tableColumn id="7" xr3:uid="{B4CCA97A-122B-F84B-99A8-0752A94BBD2B}" name="Roman Citizen"/>
+    <tableColumn id="8" xr3:uid="{44F77901-18D2-4047-8C4B-C02CAEF4F013}" name="Family"/>
+    <tableColumn id="9" xr3:uid="{901A703E-B538-5D40-ACB7-B8090070BC4E}" name="Extended"/>
+    <tableColumn id="10" xr3:uid="{EF5D740D-6C12-C549-957A-2C0DC883FFB9}" name="Praenomen"/>
+    <tableColumn id="11" xr3:uid="{3FA27551-4BEE-3041-B4BB-5185B42E2DFA}" name="Nomen"/>
+    <tableColumn id="12" xr3:uid="{0DC31EE8-2434-6D43-9044-C1094A691920}" name="Cognomen"/>
+    <tableColumn id="13" xr3:uid="{77EEE78C-CE87-7142-A343-4ACF46EA813A}" name="Onomos"/>
+    <tableColumn id="14" xr3:uid="{D0F5B3E5-52BE-494F-BC6E-6D72B318BEC6}" name="Patronym"/>
+    <tableColumn id="15" xr3:uid="{076C4154-33D0-7F4B-BA6D-7F70FF32E98D}" name="Deme"/>
+    <tableColumn id="16" xr3:uid="{C2703CB2-FF25-D547-ADFF-DF51388C593E}" name="Uncertain Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Honor" connectionId="1" xr16:uid="{B26F8A15-C0AA-DD43-9C1E-7ADDB39DEB11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A5841345-B13A-D040-8093-E217FA8FAF08}" name="Honors" displayName="Honors" ref="A1:F141" totalsRowShown="0">
+  <autoFilter ref="A1:F141" xr:uid="{626A3160-AB3F-624A-944D-EE8DA5F528EF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8413FBA6-0795-2F4B-B856-DA63911B5D58}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{92F75BF5-89BC-2642-B2B0-6EF99F6BE345}" name="Honor"/>
+    <tableColumn id="3" xr3:uid="{EDC8B7E2-8915-0447-A19E-735B12A70D91}" name="Origin"/>
+    <tableColumn id="4" xr3:uid="{8C12598A-4C2C-A84D-B639-C7AAC488B45F}" name="Category"/>
+    <tableColumn id="5" xr3:uid="{9452ABAD-6766-A443-8DAF-C8D938B7BB0A}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{C9B9DE4A-1123-2741-84E5-73D1B5BF26DA}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Inscription Feature" connectionId="4" xr16:uid="{7A05516B-B9ED-024B-82E9-8FB9174098ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BB5E3213-12A9-C642-98AD-FF8D4E55E32A}" name="InscriptionFeature" displayName="InscriptionFeature" ref="A1:E636" totalsRowShown="0">
+  <autoFilter ref="A1:E636" xr:uid="{6E0CC81D-80A6-A04E-B3D8-1ADFB655C09F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{946C41D8-EFC3-7349-A47E-A11A8AF5BDE5}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{5C868747-FD17-2B42-96ED-CA2BB4C3DD8D}" name="Inscription ID"/>
+    <tableColumn id="3" xr3:uid="{49A48574-5EDD-4A40-8B7F-BD90B57EDC2A}" name="Feature"/>
+    <tableColumn id="4" xr3:uid="{8D170D4C-A351-4F45-9264-E612AE167C54}" name="Uncertain"/>
+    <tableColumn id="5" xr3:uid="{ECF38C63-38F0-E14A-91F3-13522E275A1D}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Inscription Multistone" connectionId="6" xr16:uid="{A488F7DA-0FCA-7246-9539-BD11C14031C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FDAF7FF7-8662-F84C-B0FD-9A26787520B0}" name="InscriptionMultistone" displayName="InscriptionMultistone" ref="A1:C30" totalsRowShown="0">
+  <autoFilter ref="A1:C30" xr:uid="{F7CFA075-BA08-8645-ABAC-6558A96672C7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6CA54BAB-3A04-9C48-9C0A-C7362856B4DB}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{D39516D3-66E4-F049-9E3B-64FB64C1553B}" name="IE"/>
+    <tableColumn id="3" xr3:uid="{BDE8579E-1DC8-1E44-A6CB-46872F2A60B7}" name="Part"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Inscription Reference" connectionId="7" xr16:uid="{21E86C10-377E-C049-84A7-1DE3615320B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9CA6A10B-410E-5B4F-8F08-099B0AF6F053}" name="InscriptionReference" displayName="InscriptionReference" ref="A1:E503" totalsRowShown="0">
+  <autoFilter ref="A1:E503" xr:uid="{4D3CCDE3-9D61-DF42-B8AA-420C0D56550A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{373CB0CD-5D62-574A-9B98-3F568EEA01CC}" name="Inscription ID"/>
+    <tableColumn id="2" xr3:uid="{49C1AD0F-96D1-F249-BE5F-746465AFF36A}" name="Publication"/>
+    <tableColumn id="3" xr3:uid="{ABB1FD34-495D-7449-8824-E2079D02F7B9}" name="Number"/>
+    <tableColumn id="4" xr3:uid="{3CD04EFB-11C9-CF4A-832C-9FC6092E72B7}" name="Additional"/>
+    <tableColumn id="5" xr3:uid="{ADCBA1D9-D5B5-634F-A4FF-EF4E38CE29B3}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Inscription Macroscopic" connectionId="5" xr16:uid="{97525CB8-8D9A-F146-BE56-D0B1E9CD788F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4B753879-4AD8-CC42-B725-F3251A932D33}" name="InscriptionMacroscopic" displayName="InscriptionMacroscopic" ref="A1:K680" totalsRowShown="0">
+  <autoFilter ref="A1:K680" xr:uid="{BAE8668F-BF5F-6D4B-BF44-EAD6B443170D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EDB0A9E4-3CD3-BA40-807E-548D37486DE2}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{D6F5AF9A-5EFE-E94B-A539-501A620D0849}" name="Inscription"/>
+    <tableColumn id="3" xr3:uid="{9D37D0FC-12D8-4F40-B0C1-BFCAA246B8C9}" name="Date"/>
+    <tableColumn id="4" xr3:uid="{B760D961-31D9-344A-A794-9C7DDCDCED91}" name="Date Strength"/>
+    <tableColumn id="5" xr3:uid="{1CE03369-73C7-D841-936D-2DEB6A11309E}" name="Inscription Type"/>
+    <tableColumn id="6" xr3:uid="{44957DF3-CDA8-AF4B-A378-4B123D67E005}" name="Object Type"/>
+    <tableColumn id="7" xr3:uid="{3F0849A2-5FBB-7049-9D38-ED326F343B3E}" name="Altered"/>
+    <tableColumn id="8" xr3:uid="{BFEC1207-A355-5747-92B8-E38E86F5C814}" name="Visuals"/>
+    <tableColumn id="9" xr3:uid="{9BD27271-C083-5F49-8B25-8EF8A4638615}" name="Text Format"/>
+    <tableColumn id="10" xr3:uid="{CC655641-F74B-AA40-8183-00EA59AB6E2B}" name="Sponsor Type"/>
+    <tableColumn id="11" xr3:uid="{9DBE318E-406F-8D4F-BAD3-03C2021AD04D}" name="Honorand Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Honor in Inscription" connectionId="2" xr16:uid="{CF7E3762-72A5-E64D-A312-C6918F591228}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3CA04679-7137-1046-9C5D-316C2322EF8D}" name="HonorInInscription" displayName="HonorInInscription" ref="A1:D492" totalsRowShown="0">
+  <autoFilter ref="A1:D492" xr:uid="{717B910A-7E63-D640-8DF5-39F33033EB4F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{82F50351-E3BA-BF4D-8AB2-9154ECEF426F}" name="Honor ID"/>
+    <tableColumn id="2" xr3:uid="{1FB8719D-F83D-C843-B4AA-BFCBD7500E2F}" name="Inscription ID"/>
+    <tableColumn id="3" xr3:uid="{0A00535F-B962-EC42-BA7C-DFF8790BD98C}" name="Appearances"/>
+    <tableColumn id="4" xr3:uid="{7D72ACD0-FB90-ED4F-BB87-C5FCDEC94EBE}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7031,24 +7001,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E1310E-F434-2F40-A573-F04EA3F9AC57}">
   <dimension ref="A1:M427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -22256,6 +22227,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -22263,13 +22237,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1359A1E-2378-F645-877F-EE4E9F65DF55}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -22685,6 +22661,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -22692,15 +22671,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6699D2EB-E3FC-C74D-B248-5F8EC4026096}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E226"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -25872,6 +25853,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -25879,14 +25863,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07D02D-A550-444D-B33B-F0F6FE82FC03}">
   <dimension ref="A1:D692"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D692"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -32342,6 +32328,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -32349,15 +32338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3925E-877F-D94D-AA56-411C31695634}">
   <dimension ref="A1:E518"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -41168,6 +41159,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -41175,16 +41169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CBF3A7-56AC-274C-B988-DCEE9D0AAE9D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -41634,6 +41630,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -41641,7 +41640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1E3B16-F8C6-F244-92EE-71CDCA2E25C0}">
   <dimension ref="A1:P540"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P540"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41649,22 +41650,22 @@
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2133</v>
       </c>
       <c r="B1" t="s">
         <v>1080</v>
@@ -59724,6 +59725,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -59731,15 +59735,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D3DA6-E790-C94A-B696-5C0EB7504532}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -62144,6 +62151,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -62151,15 +62161,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBE968E-1BE2-D940-8B1C-895A8F1699D8}">
   <dimension ref="A1:E636"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E636"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -69181,6 +69193,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -69188,12 +69203,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B43054D-4171-B247-821D-7B3C383C0414}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -69528,6 +69546,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -69535,15 +69556,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FD5817-BB38-7644-B790-C3B4EA463FC0}">
   <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E503"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -75186,6 +75209,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -75193,21 +75219,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50DD13C-7FAD-2645-86D2-AF484B460C35}">
   <dimension ref="A1:K680"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -92883,6 +92911,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -92890,14 +92921,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81014F09-C73C-1642-B72E-2181D9308636}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D492"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -98317,5 +98350,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidthomas/Git/brown-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19514AE1-6108-6741-A801-8ED774899DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD6FEC-B58A-5944-952E-358CBB5037C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="12" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -7001,8 +7001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E1310E-F434-2F40-A573-F04EA3F9AC57}">
   <dimension ref="A1:M427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M427"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16117,7 +16117,7 @@
         <v>234</v>
       </c>
       <c r="D256" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
@@ -32338,7 +32338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3925E-877F-D94D-AA56-411C31695634}">
   <dimension ref="A1:E518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/eleusis_master.xlsx
+++ b/eleusis_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidthomas/Git/brown-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD6FEC-B58A-5944-952E-358CBB5037C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502D4E1A-8F5C-3E43-8148-5CC4C9060599}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{0C2D7FDC-D2BD-754C-9966-FCA1A3DC457F}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12998" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12998" uniqueCount="2133">
   <si>
     <t>ID</t>
   </si>
@@ -6442,9 +6442,6 @@
   </si>
   <si>
     <t>Honorand</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -6593,7 +6590,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A932EFEA-769E-6741-AF94-FAC50E1882F9}" name="People" displayName="People" ref="A1:P540" totalsRowShown="0">
   <autoFilter ref="A1:P540" xr:uid="{F005076A-8E8E-3B4C-9F02-0C4F9313D8B6}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{9C6C46A7-2F84-4E43-8620-84DB6C74F2F9}" name="ss"/>
+    <tableColumn id="1" xr3:uid="{9C6C46A7-2F84-4E43-8620-84DB6C74F2F9}" name="ID"/>
     <tableColumn id="2" xr3:uid="{515E5A13-6935-E441-B0A6-13387AE6A9E6}" name="Person"/>
     <tableColumn id="3" xr3:uid="{40A5FA94-3CD6-C546-8FEC-69B957E1498F}" name="Category"/>
     <tableColumn id="4" xr3:uid="{682C165A-E39D-F446-888A-D77FD1D2CFCE}" name="Origin"/>
@@ -7001,7 +6998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E1310E-F434-2F40-A573-F04EA3F9AC57}">
   <dimension ref="A1:M427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+    <sheetView topLeftCell="A242" workbookViewId="0">
       <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
@@ -41640,8 +41637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1E3B16-F8C6-F244-92EE-71CDCA2E25C0}">
   <dimension ref="A1:P540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P540"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41665,7 +41662,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2133</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1080</v>
